--- a/data/output/FV2410_FV2404/UTILMD/55553.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55553.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3614" uniqueCount="308">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3635" uniqueCount="308">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1039,6 +1039,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U160" totalsRowShown="0">
+  <autoFilter ref="A1:U160"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1328,7 +1358,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -9111,5 +9144,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/UTILMD/55553.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55553.xlsx
@@ -1935,7 +1935,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2443,7 +2443,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2645,7 +2645,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -3153,7 +3153,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -3527,7 +3527,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -3839,7 +3839,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4257,7 +4257,7 @@
         <v>293</v>
       </c>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4423,7 +4423,7 @@
         <v>294</v>
       </c>
       <c r="L50" s="4"/>
-      <c r="M50" s="2" t="s">
+      <c r="M50" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N50" s="2" t="s">
@@ -4585,7 +4585,7 @@
         <v>295</v>
       </c>
       <c r="L53" s="4"/>
-      <c r="M53" s="2" t="s">
+      <c r="M53" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N53" s="2" t="s">
@@ -4751,7 +4751,7 @@
         <v>295</v>
       </c>
       <c r="L56" s="4"/>
-      <c r="M56" s="2" t="s">
+      <c r="M56" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N56" s="2" t="s">
@@ -4917,7 +4917,7 @@
         <v>297</v>
       </c>
       <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -5073,7 +5073,7 @@
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -5273,7 +5273,7 @@
       </c>
       <c r="K66" s="2"/>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -5469,7 +5469,7 @@
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -5667,7 +5667,7 @@
         <v>298</v>
       </c>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -5815,7 +5815,7 @@
       </c>
       <c r="K77" s="2"/>
       <c r="L77" s="4"/>
-      <c r="M77" s="2" t="s">
+      <c r="M77" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N77" s="2" t="s">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="K80" s="2"/>
       <c r="L80" s="4"/>
-      <c r="M80" s="2" t="s">
+      <c r="M80" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N80" s="2" t="s">
@@ -6191,7 +6191,7 @@
         <v>300</v>
       </c>
       <c r="L84" s="4"/>
-      <c r="M84" s="2" t="s">
+      <c r="M84" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N84" s="2" t="s">
@@ -6603,7 +6603,7 @@
         <v>301</v>
       </c>
       <c r="L92" s="4"/>
-      <c r="M92" s="2" t="s">
+      <c r="M92" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N92" s="2" t="s">
@@ -6803,7 +6803,7 @@
         <v>302</v>
       </c>
       <c r="L96" s="4"/>
-      <c r="M96" s="2" t="s">
+      <c r="M96" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N96" s="2" t="s">
@@ -7003,7 +7003,7 @@
         <v>303</v>
       </c>
       <c r="L100" s="4"/>
-      <c r="M100" s="2" t="s">
+      <c r="M100" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N100" s="2" t="s">
@@ -7151,7 +7151,7 @@
       </c>
       <c r="K103" s="2"/>
       <c r="L103" s="4"/>
-      <c r="M103" s="2" t="s">
+      <c r="M103" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N103" s="2" t="s">
@@ -7313,7 +7313,7 @@
       </c>
       <c r="K106" s="2"/>
       <c r="L106" s="4"/>
-      <c r="M106" s="2" t="s">
+      <c r="M106" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N106" s="2" t="s">
@@ -7467,7 +7467,7 @@
       </c>
       <c r="K109" s="2"/>
       <c r="L109" s="4"/>
-      <c r="M109" s="2" t="s">
+      <c r="M109" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N109" s="2" t="s">
@@ -7613,7 +7613,7 @@
       </c>
       <c r="K112" s="2"/>
       <c r="L112" s="4"/>
-      <c r="M112" s="2" t="s">
+      <c r="M112" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N112" s="2" t="s">
@@ -7769,7 +7769,7 @@
         <v>305</v>
       </c>
       <c r="L115" s="4"/>
-      <c r="M115" s="2" t="s">
+      <c r="M115" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N115" s="2" t="s">
@@ -7919,7 +7919,7 @@
         <v>306</v>
       </c>
       <c r="L118" s="4"/>
-      <c r="M118" s="2" t="s">
+      <c r="M118" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N118" s="2" t="s">
@@ -8083,7 +8083,7 @@
       </c>
       <c r="K121" s="2"/>
       <c r="L121" s="4"/>
-      <c r="M121" s="2" t="s">
+      <c r="M121" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N121" s="2" t="s">
@@ -8245,7 +8245,7 @@
       </c>
       <c r="K124" s="2"/>
       <c r="L124" s="4"/>
-      <c r="M124" s="2" t="s">
+      <c r="M124" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N124" s="2" t="s">
@@ -8403,7 +8403,7 @@
       </c>
       <c r="K127" s="2"/>
       <c r="L127" s="4"/>
-      <c r="M127" s="2" t="s">
+      <c r="M127" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N127" s="2" t="s">
@@ -8617,7 +8617,7 @@
         <v>308</v>
       </c>
       <c r="L131" s="4"/>
-      <c r="M131" s="2" t="s">
+      <c r="M131" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N131" s="2" t="s">
@@ -9029,7 +9029,7 @@
         <v>301</v>
       </c>
       <c r="L139" s="4"/>
-      <c r="M139" s="2" t="s">
+      <c r="M139" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N139" s="2" t="s">
@@ -9229,7 +9229,7 @@
         <v>302</v>
       </c>
       <c r="L143" s="4"/>
-      <c r="M143" s="2" t="s">
+      <c r="M143" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N143" s="2" t="s">
@@ -9427,7 +9427,7 @@
       </c>
       <c r="K147" s="2"/>
       <c r="L147" s="4"/>
-      <c r="M147" s="2" t="s">
+      <c r="M147" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N147" s="2" t="s">
@@ -9781,7 +9781,7 @@
       </c>
       <c r="K154" s="2"/>
       <c r="L154" s="4"/>
-      <c r="M154" s="2" t="s">
+      <c r="M154" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N154" s="2" t="s">
@@ -9979,7 +9979,7 @@
       </c>
       <c r="K158" s="2"/>
       <c r="L158" s="4"/>
-      <c r="M158" s="2" t="s">
+      <c r="M158" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N158" s="2"/>
